--- a/data/output_indicator.xlsx
+++ b/data/output_indicator.xlsx
@@ -510,7 +510,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -568,13 +568,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -659,13 +659,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -686,13 +686,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -719,13 +719,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -744,13 +744,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -773,13 +773,13 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -806,13 +806,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -835,13 +835,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -868,13 +868,13 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -911,7 +911,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -981,7 +981,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -1008,13 +1008,13 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -1051,7 +1051,7 @@
         <v>1</v>
       </c>
       <c r="I19" t="n">
-        <v>9</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="20">
@@ -1082,13 +1082,13 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H20" t="b">
         <v>1</v>
       </c>
       <c r="I20" t="n">
-        <v>9</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="21">
@@ -1125,7 +1125,7 @@
         <v>1</v>
       </c>
       <c r="I21" t="n">
-        <v>9</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="22">
@@ -1156,13 +1156,13 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H22" t="b">
         <v>1</v>
       </c>
       <c r="I22" t="n">
-        <v>9</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="23">
@@ -1189,13 +1189,13 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -1255,13 +1255,13 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27">
@@ -1331,7 +1331,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1358,13 +1358,13 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -1391,13 +1391,13 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1424,13 +1424,13 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1467,7 +1467,7 @@
         <v>1</v>
       </c>
       <c r="I31" t="n">
-        <v>9</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="32">
@@ -1502,7 +1502,7 @@
         <v>1</v>
       </c>
       <c r="I32" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33">
@@ -1535,7 +1535,7 @@
         <v>1</v>
       </c>
       <c r="I33" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34">
@@ -1566,13 +1566,13 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H34" t="b">
         <v>1</v>
       </c>
       <c r="I34" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35">
@@ -1599,13 +1599,13 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H35" t="b">
         <v>1</v>
       </c>
       <c r="I35" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36">
@@ -1632,13 +1632,13 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H36" t="b">
         <v>1</v>
       </c>
       <c r="I36" t="n">
-        <v>9</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="37">
@@ -1665,13 +1665,13 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38">
@@ -1698,13 +1698,13 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H38" t="b">
         <v>1</v>
       </c>
       <c r="I38" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39">
@@ -1735,13 +1735,13 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H39" t="b">
         <v>1</v>
       </c>
       <c r="I39" t="n">
-        <v>9</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="40">
@@ -1772,13 +1772,13 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H40" t="b">
         <v>1</v>
       </c>
       <c r="I40" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41">
@@ -1815,7 +1815,7 @@
         <v>1</v>
       </c>
       <c r="I41" t="n">
-        <v>9</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="42">
@@ -1846,13 +1846,13 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H42" t="b">
         <v>1</v>
       </c>
       <c r="I42" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43">
@@ -1883,13 +1883,13 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H43" t="b">
         <v>1</v>
       </c>
       <c r="I43" t="n">
-        <v>9</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="44">
@@ -1926,7 +1926,7 @@
         <v>1</v>
       </c>
       <c r="I44" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45">
@@ -1957,13 +1957,13 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H45" t="b">
         <v>1</v>
       </c>
       <c r="I45" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46">
@@ -2000,7 +2000,7 @@
         <v>1</v>
       </c>
       <c r="I46" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47">
@@ -2034,10 +2034,10 @@
         <v>9</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="48">
@@ -2068,13 +2068,13 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H48" t="b">
         <v>1</v>
       </c>
       <c r="I48" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49">
@@ -2111,7 +2111,7 @@
         <v>1</v>
       </c>
       <c r="I49" t="n">
-        <v>10</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="50">
@@ -2142,13 +2142,13 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H50" t="b">
         <v>1</v>
       </c>
       <c r="I50" t="n">
-        <v>9</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="51">
@@ -2179,13 +2179,13 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H51" t="b">
         <v>1</v>
       </c>
       <c r="I51" t="n">
-        <v>9</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="52">
@@ -2214,13 +2214,13 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H52" t="b">
         <v>1</v>
       </c>
       <c r="I52" t="n">
-        <v>9</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="53">
@@ -2249,13 +2249,13 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H53" t="b">
         <v>1</v>
       </c>
       <c r="I53" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="54">
@@ -2282,13 +2282,13 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -2325,7 +2325,7 @@
         <v>1</v>
       </c>
       <c r="I55" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56">
@@ -2359,10 +2359,10 @@
         <v>9</v>
       </c>
       <c r="H56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="57">
@@ -2393,13 +2393,13 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H57" t="b">
         <v>1</v>
       </c>
       <c r="I57" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58">
@@ -2426,13 +2426,13 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -2469,7 +2469,7 @@
         <v>1</v>
       </c>
       <c r="I59" t="n">
-        <v>10</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="60">
@@ -2504,7 +2504,7 @@
         <v>1</v>
       </c>
       <c r="I60" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
